--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -97,19 +110,97 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
+    <t>player.tb_player_level</t>
+  </si>
+  <si>
+    <t>player_level</t>
+  </si>
+  <si>
+    <t>玩家等级表@W-玩家表.xlsx</t>
+  </si>
+  <si>
+    <t>item.tb_item_info</t>
+  </si>
+  <si>
+    <t>item_info</t>
+  </si>
+  <si>
+    <t>道具信息表@D-道具表.xlsx</t>
+  </si>
+  <si>
+    <t>chess.tb_chess_type</t>
+  </si>
+  <si>
+    <t>chess_type</t>
+  </si>
+  <si>
+    <t>玩法参数表@X-象棋表.xlsx</t>
+  </si>
+  <si>
+    <t>chess.tb_chess_param</t>
+  </si>
+  <si>
+    <t>chess_param</t>
+  </si>
+  <si>
+    <t>通用参数表@X-象棋表.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>chess.tb_chess_rank</t>
+  </si>
+  <si>
+    <t>chess_rank</t>
+  </si>
+  <si>
+    <t>段位表@X-象棋表.xlsx</t>
+  </si>
+  <si>
+    <t>match.tb_match_game</t>
+  </si>
+  <si>
+    <t>match_game</t>
+  </si>
+  <si>
+    <t>游戏表@P-匹配表.xlsx</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>email.tb_email_sys</t>
+  </si>
+  <si>
+    <t>email_sys</t>
+  </si>
+  <si>
+    <t>系统邮件表@Y-邮件表.xlsx</t>
+  </si>
+  <si>
+    <t>email.tb_email_friend</t>
+  </si>
+  <si>
+    <t>email_friend</t>
+  </si>
+  <si>
+    <t>好友邮件表@Y-邮件表.xlsx</t>
+  </si>
+  <si>
+    <t>misc.tb_misc_param</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>杂项参数表@Z-杂项表.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -120,14 +211,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +226,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -143,14 +234,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +249,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +257,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +265,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +273,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,14 +281,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +296,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +304,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -221,14 +312,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -236,35 +327,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -728,55 +819,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -785,6 +876,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,19 +1143,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.3809523809524" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="32.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="24.3809523809524" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.575" customWidth="1"/>
+    <col min="4" max="4" width="32.425" customWidth="1"/>
+    <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1150,7 +1253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1162,6 +1265,157 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GameConfig/Datas/__tables__.xlsx
+++ b/Configs/GameConfig/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>杂项参数表@Z-杂项表.xlsx</t>
+  </si>
+  <si>
+    <t>app.tb_app_config</t>
+  </si>
+  <si>
+    <t>app_config</t>
+  </si>
+  <si>
+    <t>app配置表@A-app配置表.xlsx</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -876,13 +888,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1143,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1155,11 +1160,11 @@
     <col min="3" max="3" width="15.575" customWidth="1"/>
     <col min="4" max="4" width="32.425" customWidth="1"/>
     <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1416,6 +1421,29 @@
       </c>
       <c r="K12" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
